--- a/氣象性能評估工具V2/data/obs/2016-06-08_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-08_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="201">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>20.5</t>
+  </si>
+  <si>
     <t>2016-06-08-00</t>
   </si>
   <si>
-    <t>20.5</t>
-  </si>
-  <si>
     <t>25.2</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>26.1</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>2016-06-08-01</t>
   </si>
   <si>
-    <t>20.8</t>
-  </si>
-  <si>
     <t>25.0</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>26.3</t>
   </si>
   <si>
+    <t>19.8</t>
+  </si>
+  <si>
     <t>2016-06-08-02</t>
   </si>
   <si>
-    <t>19.8</t>
-  </si>
-  <si>
     <t>21.6</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>5.4</t>
   </si>
   <si>
+    <t>20.3</t>
+  </si>
+  <si>
     <t>2016-06-08-04</t>
   </si>
   <si>
-    <t>20.3</t>
-  </si>
-  <si>
     <t>21.3</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>6.9</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-08-08</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>29.2</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>28.6</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-08-09</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>31.6</t>
   </si>
   <si>
@@ -544,12 +544,12 @@
     <t>9.7</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-08-17</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>22.3</t>
   </si>
   <si>
@@ -610,10 +610,10 @@
     <t>12.9</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-08-23</t>
-  </si>
-  <si>
-    <t>20.9</t>
   </si>
   <si>
     <t>22.1</t>
@@ -623,6 +623,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -652,8 +655,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,11 +1036,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1109,11 +1113,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1186,11 +1190,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1263,11 +1267,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1340,11 +1344,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -1417,7 +1421,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
@@ -1460,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
         <v>85</v>
@@ -1494,7 +1498,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B8" t="s">
@@ -1571,7 +1575,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B9" t="s">
@@ -1648,11 +1652,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -1725,11 +1729,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -1802,7 +1806,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B12" t="s">
@@ -1879,7 +1883,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B13" t="s">
@@ -1956,7 +1960,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B14" t="s">
@@ -2033,7 +2037,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B15" t="s">
@@ -2110,7 +2114,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B16" t="s">
@@ -2187,7 +2191,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B17" t="s">
@@ -2264,7 +2268,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B18" t="s">
@@ -2341,11 +2345,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
         <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>105</v>
@@ -2418,7 +2422,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B20" t="s">
@@ -2495,11 +2499,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -2572,7 +2576,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B22" t="s">
@@ -2649,11 +2653,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -2692,7 +2696,7 @@
         <v>65</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
         <v>191</v>
@@ -2726,7 +2730,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B24" t="s">
@@ -2736,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
@@ -2803,11 +2807,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" t="s">
         <v>198</v>
-      </c>
-      <c r="B25" t="s">
-        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -2846,7 +2850,7 @@
         <v>57</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P25" t="s">
         <v>147</v>
